--- a/项目日志.xlsx
+++ b/项目日志.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陈家栋\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\人工智能\work\1601MGroup4\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B3782ECB-14A4-46FC-B20D-17C4E186AABC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="10608"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="10608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>姓名</t>
   </si>
@@ -77,12 +78,28 @@
   <si>
     <t>周五</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>王群</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建Github账号，上传项目至Github仓库，熟悉git命令，熟悉上传流程。以上进度为当天教学内容的100%。</t>
+  </si>
+  <si>
+    <t>完成小组文件的下载、修改、上传</t>
+  </si>
+  <si>
+    <t>1、不知何时分支变为 （no beanch)  2、git pull 远端与本地不一致，更新即可解决此问题。 3、远端文件更改过于频繁，导致与本地文件内容不一致。出现更新失败，从新下载一份文件即可解决。</t>
+  </si>
+  <si>
+    <t>将Github的用途及用法更深层次的学习及记忆。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,7 +195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,28 +266,34 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,12 +598,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
@@ -601,7 +624,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -610,7 +633,7 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="24" t="s">
         <v>11</v>
       </c>
     </row>
@@ -621,7 +644,7 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -635,9 +658,24 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="94.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="32">
+        <v>43346</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -720,7 +758,7 @@
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="10"/>
@@ -804,7 +842,7 @@
       <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -876,7 +914,7 @@
       <c r="E54" s="5"/>
     </row>
     <row r="56" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="27" t="s">
         <v>14</v>
       </c>
     </row>
@@ -937,7 +975,7 @@
       <c r="E72" s="5"/>
     </row>
     <row r="73" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="27" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1058,20 +1096,20 @@
       <c r="F110" s="5"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="23"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
+      <c r="A112" s="29"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
     </row>
     <row r="113" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="23"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="23"/>
+      <c r="A113" s="29"/>
+      <c r="B113" s="30"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
     </row>
     <row r="114" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
@@ -1124,20 +1162,20 @@
       <c r="F123" s="5"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="24"/>
-      <c r="B126" s="26"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
+      <c r="A126" s="28"/>
+      <c r="B126" s="31"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
+      <c r="F126" s="28"/>
     </row>
     <row r="127" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="24"/>
-      <c r="B127" s="26"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="24"/>
+      <c r="A127" s="28"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="28"/>
+      <c r="F127" s="28"/>
     </row>
     <row r="128" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="130" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1147,20 +1185,20 @@
       <c r="F130" s="5"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="23"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="23"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="23"/>
-      <c r="F131" s="23"/>
+      <c r="A131" s="29"/>
+      <c r="B131" s="30"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="29"/>
     </row>
     <row r="132" spans="1:6" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="23"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="23"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="23"/>
-      <c r="F132" s="23"/>
+      <c r="A132" s="29"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="29"/>
     </row>
     <row r="133" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C133" s="5"/>
@@ -1181,20 +1219,20 @@
       <c r="F135" s="5"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="24"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="24"/>
-      <c r="F138" s="23"/>
+      <c r="A138" s="28"/>
+      <c r="B138" s="31"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="28"/>
+      <c r="F138" s="29"/>
     </row>
     <row r="139" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="24"/>
-      <c r="B139" s="26"/>
-      <c r="C139" s="23"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="23"/>
+      <c r="A139" s="28"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="29"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="28"/>
+      <c r="F139" s="29"/>
     </row>
     <row r="140" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
@@ -1237,36 +1275,36 @@
       <c r="F149" s="5"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="23"/>
-      <c r="B150" s="25"/>
-      <c r="C150" s="23"/>
-      <c r="D150" s="23"/>
-      <c r="E150" s="23"/>
-      <c r="F150" s="23"/>
+      <c r="A150" s="29"/>
+      <c r="B150" s="30"/>
+      <c r="C150" s="29"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="29"/>
+      <c r="F150" s="29"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="23"/>
-      <c r="B151" s="25"/>
-      <c r="C151" s="23"/>
-      <c r="D151" s="23"/>
-      <c r="E151" s="23"/>
-      <c r="F151" s="23"/>
+      <c r="A151" s="29"/>
+      <c r="B151" s="30"/>
+      <c r="C151" s="29"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="29"/>
+      <c r="F151" s="29"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="24"/>
-      <c r="B152" s="25"/>
-      <c r="C152" s="23"/>
-      <c r="D152" s="23"/>
-      <c r="E152" s="24"/>
-      <c r="F152" s="23"/>
+      <c r="A152" s="28"/>
+      <c r="B152" s="30"/>
+      <c r="C152" s="29"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="28"/>
+      <c r="F152" s="29"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="24"/>
-      <c r="B153" s="25"/>
-      <c r="C153" s="23"/>
-      <c r="D153" s="23"/>
-      <c r="E153" s="24"/>
-      <c r="F153" s="23"/>
+      <c r="A153" s="28"/>
+      <c r="B153" s="30"/>
+      <c r="C153" s="29"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="28"/>
+      <c r="F153" s="29"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D154" s="20"/>
@@ -1336,36 +1374,36 @@
       <c r="F168" s="5"/>
     </row>
     <row r="169" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="23"/>
-      <c r="B169" s="25"/>
-      <c r="C169" s="23"/>
-      <c r="D169" s="23"/>
-      <c r="E169" s="23"/>
-      <c r="F169" s="23"/>
+      <c r="A169" s="29"/>
+      <c r="B169" s="30"/>
+      <c r="C169" s="29"/>
+      <c r="D169" s="29"/>
+      <c r="E169" s="29"/>
+      <c r="F169" s="29"/>
     </row>
     <row r="170" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="23"/>
-      <c r="B170" s="25"/>
-      <c r="C170" s="23"/>
-      <c r="D170" s="23"/>
-      <c r="E170" s="23"/>
-      <c r="F170" s="23"/>
+      <c r="A170" s="29"/>
+      <c r="B170" s="30"/>
+      <c r="C170" s="29"/>
+      <c r="D170" s="29"/>
+      <c r="E170" s="29"/>
+      <c r="F170" s="29"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="24"/>
-      <c r="B171" s="25"/>
-      <c r="C171" s="23"/>
-      <c r="D171" s="23"/>
-      <c r="E171" s="24"/>
-      <c r="F171" s="23"/>
+      <c r="A171" s="28"/>
+      <c r="B171" s="30"/>
+      <c r="C171" s="29"/>
+      <c r="D171" s="29"/>
+      <c r="E171" s="28"/>
+      <c r="F171" s="29"/>
     </row>
     <row r="172" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="24"/>
-      <c r="B172" s="25"/>
-      <c r="C172" s="23"/>
-      <c r="D172" s="23"/>
-      <c r="E172" s="24"/>
-      <c r="F172" s="23"/>
+      <c r="A172" s="28"/>
+      <c r="B172" s="30"/>
+      <c r="C172" s="29"/>
+      <c r="D172" s="29"/>
+      <c r="E172" s="28"/>
+      <c r="F172" s="29"/>
     </row>
     <row r="173" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C173" s="5"/>
@@ -1388,20 +1426,20 @@
     </row>
     <row r="177" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="23"/>
-      <c r="B178" s="25"/>
-      <c r="C178" s="23"/>
-      <c r="D178" s="23"/>
-      <c r="E178" s="23"/>
-      <c r="F178" s="23"/>
+      <c r="A178" s="29"/>
+      <c r="B178" s="30"/>
+      <c r="C178" s="29"/>
+      <c r="D178" s="29"/>
+      <c r="E178" s="29"/>
+      <c r="F178" s="29"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="23"/>
-      <c r="B179" s="25"/>
-      <c r="C179" s="23"/>
-      <c r="D179" s="23"/>
-      <c r="E179" s="23"/>
-      <c r="F179" s="23"/>
+      <c r="A179" s="29"/>
+      <c r="B179" s="30"/>
+      <c r="C179" s="29"/>
+      <c r="D179" s="29"/>
+      <c r="E179" s="29"/>
+      <c r="F179" s="29"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
@@ -1435,6 +1473,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C171:C172"/>
     <mergeCell ref="E152:E153"/>
     <mergeCell ref="E169:E170"/>
     <mergeCell ref="E171:E172"/>
@@ -1451,44 +1527,6 @@
     <mergeCell ref="E112:E113"/>
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="E131:E132"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A150:A151"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目日志.xlsx
+++ b/项目日志.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陈家栋\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject_01\1601MGroup4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>姓名</t>
   </si>
@@ -76,13 +76,33 @@
   </si>
   <si>
     <t>周五</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>李旭辉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈发展</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>王群</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨豪康</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,28 +268,28 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -579,8 +599,8 @@
   <dimension ref="A1:F185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
@@ -601,7 +621,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="23" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -610,7 +630,7 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -621,7 +641,7 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -635,27 +655,37 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="94.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
     </row>
@@ -720,7 +750,7 @@
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="10"/>
@@ -804,7 +834,7 @@
       <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="26" t="s">
         <v>13</v>
       </c>
     </row>
@@ -876,7 +906,7 @@
       <c r="E54" s="5"/>
     </row>
     <row r="56" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="26" t="s">
         <v>14</v>
       </c>
     </row>
@@ -937,7 +967,7 @@
       <c r="E72" s="5"/>
     </row>
     <row r="73" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="26" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1058,20 +1088,20 @@
       <c r="F110" s="5"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="23"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
+      <c r="A112" s="28"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
     </row>
     <row r="113" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="23"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="23"/>
+      <c r="A113" s="28"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
     </row>
     <row r="114" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
@@ -1124,20 +1154,20 @@
       <c r="F123" s="5"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="24"/>
-      <c r="B126" s="26"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
+      <c r="A126" s="27"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="27"/>
     </row>
     <row r="127" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="24"/>
-      <c r="B127" s="26"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="24"/>
+      <c r="A127" s="27"/>
+      <c r="B127" s="30"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
     </row>
     <row r="128" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="130" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1147,20 +1177,20 @@
       <c r="F130" s="5"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="23"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="23"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="23"/>
-      <c r="F131" s="23"/>
+      <c r="A131" s="28"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="28"/>
+      <c r="F131" s="28"/>
     </row>
     <row r="132" spans="1:6" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="23"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="23"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="23"/>
-      <c r="F132" s="23"/>
+      <c r="A132" s="28"/>
+      <c r="B132" s="29"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="28"/>
+      <c r="F132" s="28"/>
     </row>
     <row r="133" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C133" s="5"/>
@@ -1181,20 +1211,20 @@
       <c r="F135" s="5"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="24"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="24"/>
-      <c r="F138" s="23"/>
+      <c r="A138" s="27"/>
+      <c r="B138" s="30"/>
+      <c r="C138" s="28"/>
+      <c r="D138" s="28"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="28"/>
     </row>
     <row r="139" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="24"/>
-      <c r="B139" s="26"/>
-      <c r="C139" s="23"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="23"/>
+      <c r="A139" s="27"/>
+      <c r="B139" s="30"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="28"/>
+      <c r="E139" s="27"/>
+      <c r="F139" s="28"/>
     </row>
     <row r="140" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
@@ -1237,36 +1267,36 @@
       <c r="F149" s="5"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="23"/>
-      <c r="B150" s="25"/>
-      <c r="C150" s="23"/>
-      <c r="D150" s="23"/>
-      <c r="E150" s="23"/>
-      <c r="F150" s="23"/>
+      <c r="A150" s="28"/>
+      <c r="B150" s="29"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="23"/>
-      <c r="B151" s="25"/>
-      <c r="C151" s="23"/>
-      <c r="D151" s="23"/>
-      <c r="E151" s="23"/>
-      <c r="F151" s="23"/>
+      <c r="A151" s="28"/>
+      <c r="B151" s="29"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="28"/>
+      <c r="E151" s="28"/>
+      <c r="F151" s="28"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="24"/>
-      <c r="B152" s="25"/>
-      <c r="C152" s="23"/>
-      <c r="D152" s="23"/>
-      <c r="E152" s="24"/>
-      <c r="F152" s="23"/>
+      <c r="A152" s="27"/>
+      <c r="B152" s="29"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="28"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="28"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="24"/>
-      <c r="B153" s="25"/>
-      <c r="C153" s="23"/>
-      <c r="D153" s="23"/>
-      <c r="E153" s="24"/>
-      <c r="F153" s="23"/>
+      <c r="A153" s="27"/>
+      <c r="B153" s="29"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="28"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="28"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D154" s="20"/>
@@ -1336,36 +1366,36 @@
       <c r="F168" s="5"/>
     </row>
     <row r="169" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="23"/>
-      <c r="B169" s="25"/>
-      <c r="C169" s="23"/>
-      <c r="D169" s="23"/>
-      <c r="E169" s="23"/>
-      <c r="F169" s="23"/>
+      <c r="A169" s="28"/>
+      <c r="B169" s="29"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="28"/>
+      <c r="E169" s="28"/>
+      <c r="F169" s="28"/>
     </row>
     <row r="170" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="23"/>
-      <c r="B170" s="25"/>
-      <c r="C170" s="23"/>
-      <c r="D170" s="23"/>
-      <c r="E170" s="23"/>
-      <c r="F170" s="23"/>
+      <c r="A170" s="28"/>
+      <c r="B170" s="29"/>
+      <c r="C170" s="28"/>
+      <c r="D170" s="28"/>
+      <c r="E170" s="28"/>
+      <c r="F170" s="28"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="24"/>
-      <c r="B171" s="25"/>
-      <c r="C171" s="23"/>
-      <c r="D171" s="23"/>
-      <c r="E171" s="24"/>
-      <c r="F171" s="23"/>
+      <c r="A171" s="27"/>
+      <c r="B171" s="29"/>
+      <c r="C171" s="28"/>
+      <c r="D171" s="28"/>
+      <c r="E171" s="27"/>
+      <c r="F171" s="28"/>
     </row>
     <row r="172" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="24"/>
-      <c r="B172" s="25"/>
-      <c r="C172" s="23"/>
-      <c r="D172" s="23"/>
-      <c r="E172" s="24"/>
-      <c r="F172" s="23"/>
+      <c r="A172" s="27"/>
+      <c r="B172" s="29"/>
+      <c r="C172" s="28"/>
+      <c r="D172" s="28"/>
+      <c r="E172" s="27"/>
+      <c r="F172" s="28"/>
     </row>
     <row r="173" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C173" s="5"/>
@@ -1388,20 +1418,20 @@
     </row>
     <row r="177" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="23"/>
-      <c r="B178" s="25"/>
-      <c r="C178" s="23"/>
-      <c r="D178" s="23"/>
-      <c r="E178" s="23"/>
-      <c r="F178" s="23"/>
+      <c r="A178" s="28"/>
+      <c r="B178" s="29"/>
+      <c r="C178" s="28"/>
+      <c r="D178" s="28"/>
+      <c r="E178" s="28"/>
+      <c r="F178" s="28"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="23"/>
-      <c r="B179" s="25"/>
-      <c r="C179" s="23"/>
-      <c r="D179" s="23"/>
-      <c r="E179" s="23"/>
-      <c r="F179" s="23"/>
+      <c r="A179" s="28"/>
+      <c r="B179" s="29"/>
+      <c r="C179" s="28"/>
+      <c r="D179" s="28"/>
+      <c r="E179" s="28"/>
+      <c r="F179" s="28"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
@@ -1435,6 +1465,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C171:C172"/>
     <mergeCell ref="E152:E153"/>
     <mergeCell ref="E169:E170"/>
     <mergeCell ref="E171:E172"/>
@@ -1451,44 +1519,6 @@
     <mergeCell ref="E112:E113"/>
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="E131:E132"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A150:A151"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目日志.xlsx
+++ b/项目日志.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="10608"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="22368" windowHeight="10608"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>姓名</t>
   </si>
@@ -96,6 +96,10 @@
   </si>
   <si>
     <t>杨豪康</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -281,10 +285,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -600,7 +604,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.25"/>
@@ -659,7 +663,9 @@
         <v>16</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1088,20 +1094,20 @@
       <c r="F110" s="5"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="28"/>
+      <c r="A112" s="27"/>
       <c r="B112" s="29"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="28"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
     </row>
     <row r="113" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="28"/>
+      <c r="A113" s="27"/>
       <c r="B113" s="29"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
     </row>
     <row r="114" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
@@ -1154,20 +1160,20 @@
       <c r="F123" s="5"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="27"/>
+      <c r="A126" s="28"/>
       <c r="B126" s="30"/>
-      <c r="C126" s="27"/>
-      <c r="D126" s="27"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="28"/>
+      <c r="F126" s="28"/>
     </row>
     <row r="127" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="27"/>
+      <c r="A127" s="28"/>
       <c r="B127" s="30"/>
-      <c r="C127" s="27"/>
-      <c r="D127" s="27"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="27"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="28"/>
+      <c r="F127" s="28"/>
     </row>
     <row r="128" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="130" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1177,20 +1183,20 @@
       <c r="F130" s="5"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="28"/>
+      <c r="A131" s="27"/>
       <c r="B131" s="29"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="28"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="27"/>
     </row>
     <row r="132" spans="1:6" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="28"/>
+      <c r="A132" s="27"/>
       <c r="B132" s="29"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
-      <c r="E132" s="28"/>
-      <c r="F132" s="28"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="27"/>
     </row>
     <row r="133" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C133" s="5"/>
@@ -1211,20 +1217,20 @@
       <c r="F135" s="5"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="27"/>
+      <c r="A138" s="28"/>
       <c r="B138" s="30"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="28"/>
-      <c r="E138" s="27"/>
-      <c r="F138" s="28"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="28"/>
+      <c r="F138" s="27"/>
     </row>
     <row r="139" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="27"/>
+      <c r="A139" s="28"/>
       <c r="B139" s="30"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
-      <c r="E139" s="27"/>
-      <c r="F139" s="28"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="27"/>
+      <c r="E139" s="28"/>
+      <c r="F139" s="27"/>
     </row>
     <row r="140" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
@@ -1267,36 +1273,36 @@
       <c r="F149" s="5"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="28"/>
+      <c r="A150" s="27"/>
       <c r="B150" s="29"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="27"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="28"/>
+      <c r="A151" s="27"/>
       <c r="B151" s="29"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="28"/>
-      <c r="E151" s="28"/>
-      <c r="F151" s="28"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="27"/>
+      <c r="E151" s="27"/>
+      <c r="F151" s="27"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="27"/>
+      <c r="A152" s="28"/>
       <c r="B152" s="29"/>
-      <c r="C152" s="28"/>
-      <c r="D152" s="28"/>
-      <c r="E152" s="27"/>
-      <c r="F152" s="28"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="27"/>
+      <c r="E152" s="28"/>
+      <c r="F152" s="27"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="27"/>
+      <c r="A153" s="28"/>
       <c r="B153" s="29"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="28"/>
-      <c r="E153" s="27"/>
-      <c r="F153" s="28"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="27"/>
+      <c r="E153" s="28"/>
+      <c r="F153" s="27"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D154" s="20"/>
@@ -1366,36 +1372,36 @@
       <c r="F168" s="5"/>
     </row>
     <row r="169" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="28"/>
+      <c r="A169" s="27"/>
       <c r="B169" s="29"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
-      <c r="E169" s="28"/>
-      <c r="F169" s="28"/>
+      <c r="C169" s="27"/>
+      <c r="D169" s="27"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="27"/>
     </row>
     <row r="170" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="28"/>
+      <c r="A170" s="27"/>
       <c r="B170" s="29"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="28"/>
-      <c r="E170" s="28"/>
-      <c r="F170" s="28"/>
+      <c r="C170" s="27"/>
+      <c r="D170" s="27"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="27"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="27"/>
+      <c r="A171" s="28"/>
       <c r="B171" s="29"/>
-      <c r="C171" s="28"/>
-      <c r="D171" s="28"/>
-      <c r="E171" s="27"/>
-      <c r="F171" s="28"/>
+      <c r="C171" s="27"/>
+      <c r="D171" s="27"/>
+      <c r="E171" s="28"/>
+      <c r="F171" s="27"/>
     </row>
     <row r="172" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="27"/>
+      <c r="A172" s="28"/>
       <c r="B172" s="29"/>
-      <c r="C172" s="28"/>
-      <c r="D172" s="28"/>
-      <c r="E172" s="27"/>
-      <c r="F172" s="28"/>
+      <c r="C172" s="27"/>
+      <c r="D172" s="27"/>
+      <c r="E172" s="28"/>
+      <c r="F172" s="27"/>
     </row>
     <row r="173" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C173" s="5"/>
@@ -1418,20 +1424,20 @@
     </row>
     <row r="177" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="28"/>
+      <c r="A178" s="27"/>
       <c r="B178" s="29"/>
-      <c r="C178" s="28"/>
-      <c r="D178" s="28"/>
-      <c r="E178" s="28"/>
-      <c r="F178" s="28"/>
+      <c r="C178" s="27"/>
+      <c r="D178" s="27"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="27"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="28"/>
+      <c r="A179" s="27"/>
       <c r="B179" s="29"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="28"/>
-      <c r="E179" s="28"/>
-      <c r="F179" s="28"/>
+      <c r="C179" s="27"/>
+      <c r="D179" s="27"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="27"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
@@ -1465,42 +1471,8 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="F178:F179"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="E169:E170"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="A171:A172"/>
     <mergeCell ref="A178:A179"/>
     <mergeCell ref="B112:B113"/>
     <mergeCell ref="B126:B127"/>
@@ -1517,8 +1489,42 @@
     <mergeCell ref="A138:A139"/>
     <mergeCell ref="A150:A151"/>
     <mergeCell ref="A152:A153"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="F178:F179"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="E150:E151"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
